--- a/doc/log/log_201608040202_fangye.xlsx
+++ b/doc/log/log_201608040202_fangye.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="9390"/>
+    <workbookView windowWidth="19770" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,18 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>日期</t>
   </si>
   <si>
+    <t>时间</t>
+  </si>
+  <si>
     <t>原计划</t>
   </si>
   <si>
     <t>执行情况</t>
   </si>
   <si>
-    <t>问题与后续计划</t>
+    <t>15:00-18:00</t>
   </si>
   <si>
     <t>配置eclipse环境</t>
@@ -36,18 +39,27 @@
     <t>maven，Tomcat成功配置</t>
   </si>
   <si>
+    <t>14:00-17:00</t>
+  </si>
+  <si>
     <t>配置git和tortoisegit</t>
   </si>
   <si>
     <t>配置成功</t>
   </si>
   <si>
+    <t>9:30-12:00</t>
+  </si>
+  <si>
     <t>上传日志到远程仓库</t>
   </si>
   <si>
     <t>上传成功</t>
   </si>
   <si>
+    <t>22:00-23:30</t>
+  </si>
+  <si>
     <t>增加dao内容，测试类</t>
   </si>
   <si>
@@ -60,18 +72,27 @@
     <t>成功运行</t>
   </si>
   <si>
+    <t>16:00-18:00</t>
+  </si>
+  <si>
     <t>填写web块</t>
   </si>
   <si>
     <t>填写完成</t>
   </si>
   <si>
+    <t>22:00-24:00</t>
+  </si>
+  <si>
     <t>增加数据库数据</t>
   </si>
   <si>
     <t>增加部分</t>
   </si>
   <si>
+    <t>13:00-16:30</t>
+  </si>
+  <si>
     <t>增加数据库测试数据</t>
   </si>
   <si>
@@ -90,6 +111,9 @@
     <t>可以运行网页出现表格内信息</t>
   </si>
   <si>
+    <t>13:30-16:30</t>
+  </si>
+  <si>
     <t>更改接口</t>
   </si>
   <si>
@@ -111,6 +135,9 @@
     <t>配置还未完成</t>
   </si>
   <si>
+    <t>14:00-16:30</t>
+  </si>
+  <si>
     <t>小组讨论立项方向和具体内容</t>
   </si>
   <si>
@@ -139,6 +166,33 @@
   </si>
   <si>
     <t>未开始动手写</t>
+  </si>
+  <si>
+    <t>学习ExtJS基础</t>
+  </si>
+  <si>
+    <t>不太了解</t>
+  </si>
+  <si>
+    <t>继续学习</t>
+  </si>
+  <si>
+    <t>学习HTML标签</t>
+  </si>
+  <si>
+    <t>了解</t>
+  </si>
+  <si>
+    <t>了解css，JavaScript</t>
+  </si>
+  <si>
+    <t>有待完善</t>
+  </si>
+  <si>
+    <t>完善文档日志</t>
+  </si>
+  <si>
+    <t>大概进行完成</t>
   </si>
 </sst>
 </file>
@@ -146,9 +200,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -160,17 +214,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,69 +236,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,7 +259,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,6 +281,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -283,22 +328,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,61 +367,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,121 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,17 +561,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,7 +589,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,15 +644,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -593,27 +658,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,133 +676,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,17 +1164,16 @@
   <sheetPr/>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.7583333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.25" customWidth="1"/>
+    <col min="1" max="1" width="23.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="34.375" customWidth="1"/>
-    <col min="4" max="4" width="51.5" customWidth="1"/>
-    <col min="5" max="5" width="44.625" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="43" customHeight="1" spans="1:4">
@@ -1137,7 +1190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="43" customHeight="1" spans="1:3">
+    <row r="2" ht="43" customHeight="1" spans="1:4">
       <c r="A2" s="2">
         <v>43223</v>
       </c>
@@ -1147,118 +1200,151 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" ht="43" customHeight="1" spans="1:3">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="43" customHeight="1" spans="1:4">
       <c r="A3" s="2">
         <v>43230</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="43" customHeight="1" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="43" customHeight="1" spans="1:4">
       <c r="A4" s="2">
         <v>43235</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" ht="43" customHeight="1" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="43" customHeight="1" spans="1:4">
       <c r="A5" s="2">
         <v>43243</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" ht="43" customHeight="1" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="43" customHeight="1" spans="1:4">
       <c r="A6" s="2">
         <v>43252</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" ht="43" customHeight="1" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" ht="43" customHeight="1" spans="1:4">
       <c r="A7" s="2">
         <v>43258</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" ht="43" customHeight="1" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" ht="43" customHeight="1" spans="1:4">
       <c r="A8" s="2">
         <v>43263</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" ht="43" customHeight="1" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" ht="43" customHeight="1" spans="1:4">
       <c r="A9" s="2">
         <v>43257</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" ht="43" customHeight="1" spans="1:3">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" ht="43" customHeight="1" spans="1:4">
       <c r="A10" s="2">
         <v>43258</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" ht="43" customHeight="1" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" ht="43" customHeight="1" spans="1:4">
       <c r="A11" s="2">
         <v>43261</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" ht="43" customHeight="1" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" ht="43" customHeight="1" spans="1:4">
       <c r="A12" s="2">
         <v>43263</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" ht="43" customHeight="1" spans="1:3">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" ht="43" customHeight="1" spans="1:4">
       <c r="A13" s="2">
         <v>43265</v>
       </c>
@@ -1266,91 +1352,180 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" ht="43" customHeight="1" spans="1:3">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" ht="43" customHeight="1" spans="1:4">
       <c r="A14" s="2">
         <v>43270</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" ht="43" customHeight="1" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" ht="43" customHeight="1" spans="1:4">
       <c r="A15" s="2">
         <v>43271</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" ht="43" customHeight="1" spans="1:3">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" ht="43" customHeight="1" spans="1:4">
       <c r="A16" s="2">
         <v>43272</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" ht="43" customHeight="1" spans="1:3">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" ht="43" customHeight="1" spans="1:4">
       <c r="A17" s="2">
         <v>43276</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" ht="43" customHeight="1" spans="1:3">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" ht="43" customHeight="1" spans="1:4">
       <c r="A18" s="2">
         <v>43277</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" ht="43" customHeight="1" spans="1:3">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" ht="43" customHeight="1" spans="1:4">
       <c r="A19" s="2">
         <v>43278</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" ht="43" customHeight="1" spans="1:3">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" ht="43" customHeight="1" spans="1:4">
       <c r="A20" s="2">
         <v>42549</v>
       </c>
       <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" ht="43" customHeight="1" spans="1:4">
+      <c r="A21" s="2">
+        <v>43280</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" ht="43" customHeight="1" spans="1:4">
+      <c r="A22" s="2">
+        <v>43283</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" ht="43" customHeight="1" spans="1:4">
+      <c r="A23" s="2">
+        <v>43284</v>
+      </c>
+      <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" ht="43" customHeight="1"/>
-    <row r="22" ht="43" customHeight="1"/>
-    <row r="23" ht="43" customHeight="1"/>
-    <row r="24" ht="43" customHeight="1"/>
-    <row r="25" ht="43" customHeight="1"/>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" ht="43" customHeight="1" spans="1:4">
+      <c r="A24" s="2">
+        <v>43285</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" ht="43" customHeight="1" spans="1:4">
+      <c r="A25" s="2">
+        <v>43286</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="26" ht="43" customHeight="1"/>
     <row r="27" ht="43" customHeight="1"/>
     <row r="28" ht="43" customHeight="1"/>
